--- a/Devops Marking System.xlsx
+++ b/Devops Marking System.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RKIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A75607A-801E-4269-82AD-6BABDE45CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57269E93-C404-43F7-BBF9-3C418D1272B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Basic OS configuration</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/wireless-communication-set-1/</t>
+  </si>
+  <si>
+    <t>2.1,2.2</t>
+  </si>
+  <si>
+    <t>https://softwarekeep.com/help-center/windows-server-2022-installation-guide-step-by-step</t>
+  </si>
+  <si>
+    <t>https://www.ibm.com/docs/en/mfci/7.6.2?topic=system-basic-configuration</t>
   </si>
 </sst>
 </file>
@@ -580,11 +589,11 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -910,7 +919,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -930,7 +939,7 @@
       <c r="A1" s="10"/>
       <c r="B1" s="18"/>
       <c r="C1" s="11"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -958,7 +967,7 @@
       <c r="F2" s="28">
         <v>45140</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="27" t="s">
         <v>76</v>
       </c>
       <c r="H2" s="27">
@@ -969,7 +978,15 @@
       <c r="A3" s="5"/>
       <c r="B3" s="19"/>
       <c r="C3" s="2"/>
-      <c r="F3" s="28"/>
+      <c r="F3" s="28">
+        <v>37836</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="6"/>
@@ -979,7 +996,7 @@
       <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="31">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -994,7 +1011,7 @@
       <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" t="s">
         <v>80</v>
       </c>
@@ -1037,7 +1054,7 @@
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="31">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -1052,7 +1069,7 @@
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="31"/>
       <c r="E9" t="s">
         <v>84</v>
       </c>
@@ -1079,8 +1096,11 @@
       <c r="C12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="31">
         <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
@@ -1091,7 +1111,10 @@
       <c r="C13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="6"/>
@@ -1101,7 +1124,7 @@
       <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="31">
         <v>1.5</v>
       </c>
     </row>
@@ -1113,7 +1136,7 @@
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="6"/>
@@ -1147,7 +1170,7 @@
       <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30">
+      <c r="D18" s="31">
         <v>1</v>
       </c>
     </row>
@@ -1159,7 +1182,7 @@
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="30"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="6"/>
@@ -1169,7 +1192,7 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="6"/>
@@ -1179,7 +1202,7 @@
       <c r="C21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="31">
         <v>1.5</v>
       </c>
     </row>
@@ -1191,7 +1214,7 @@
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="31"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="6"/>
@@ -1201,7 +1224,7 @@
       <c r="C23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="31"/>
     </row>
     <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="6"/>
@@ -1211,7 +1234,7 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="6"/>
@@ -1221,7 +1244,7 @@
       <c r="C25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1233,7 +1256,7 @@
       <c r="C26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="6"/>
@@ -1243,7 +1266,7 @@
       <c r="C27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="31"/>
     </row>
     <row r="28" spans="1:4" ht="18.75">
       <c r="A28" s="4">
@@ -1262,7 +1285,7 @@
       <c r="C29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D29" s="31">
         <v>3</v>
       </c>
     </row>
@@ -1274,7 +1297,7 @@
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
     </row>
     <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="6"/>
@@ -1284,7 +1307,7 @@
       <c r="C31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="30"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="6"/>
@@ -1294,7 +1317,7 @@
       <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="30"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="6"/>
@@ -1304,7 +1327,7 @@
       <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="30"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="6"/>
@@ -1314,7 +1337,7 @@
       <c r="C34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="6"/>
@@ -1324,7 +1347,7 @@
       <c r="C35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="30"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="6"/>
@@ -1334,7 +1357,7 @@
       <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="30"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="6"/>
@@ -1344,7 +1367,7 @@
       <c r="C37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="6"/>
@@ -1354,7 +1377,7 @@
       <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="30"/>
+      <c r="D38" s="31"/>
     </row>
     <row r="39" spans="1:4" ht="18.75">
       <c r="A39" s="4">
@@ -1364,7 +1387,7 @@
       <c r="C39" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="31">
         <v>2</v>
       </c>
     </row>
@@ -1376,7 +1399,7 @@
       <c r="C40" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="30"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="6"/>
@@ -1386,7 +1409,7 @@
       <c r="C41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="30"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="6"/>
@@ -1396,7 +1419,7 @@
       <c r="C42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="31"/>
     </row>
     <row r="43" spans="1:4" ht="16.5" thickBot="1">
       <c r="A43" s="16"/>
@@ -1437,9 +1460,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1575,26 +1601,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100FB3B0-611D-4E68-B442-F0B4A7055530}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D008A29A-16EE-48F2-A304-97B47DA205E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85df923e-d879-42f4-9cd5-d99571c2edb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1618,9 +1633,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D008A29A-16EE-48F2-A304-97B47DA205E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100FB3B0-611D-4E68-B442-F0B4A7055530}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85df923e-d879-42f4-9cd5-d99571c2edb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Devops Marking System.xlsx
+++ b/Devops Marking System.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RKIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57269E93-C404-43F7-BBF9-3C418D1272B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B20548-E085-4519-B3D3-89F1A640E15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Basic OS configuration</t>
   </si>
@@ -283,14 +283,20 @@
     <t>https://softwarekeep.com/help-center/windows-server-2022-installation-guide-step-by-step</t>
   </si>
   <si>
-    <t>https://www.ibm.com/docs/en/mfci/7.6.2?topic=system-basic-configuration</t>
+    <t xml:space="preserve">2.1,2.2 </t>
+  </si>
+  <si>
+    <t>2.3,2.4</t>
+  </si>
+  <si>
+    <t>2.1,2.2,2.3,2.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +360,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -503,12 +517,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -595,8 +610,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Output 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -918,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1002,6 +1019,15 @@
       <c r="E4" t="s">
         <v>79</v>
       </c>
+      <c r="F4" s="28">
+        <v>45142</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="6"/>
@@ -1015,6 +1041,15 @@
       <c r="E5" t="s">
         <v>80</v>
       </c>
+      <c r="F5" s="28">
+        <v>45143</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="27">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="6"/>
@@ -1030,6 +1065,15 @@
       <c r="E6" t="s">
         <v>81</v>
       </c>
+      <c r="F6" s="28">
+        <v>45144</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="5"/>
@@ -1112,9 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="31"/>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="6"/>
@@ -1460,12 +1502,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1601,15 +1640,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D008A29A-16EE-48F2-A304-97B47DA205E3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100FB3B0-611D-4E68-B442-F0B4A7055530}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="85df923e-d879-42f4-9cd5-d99571c2edb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1633,17 +1683,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100FB3B0-611D-4E68-B442-F0B4A7055530}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D008A29A-16EE-48F2-A304-97B47DA205E3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="85df923e-d879-42f4-9cd5-d99571c2edb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>